--- a/biology/Botanique/Sorbaria/Sorbaria.xlsx
+++ b/biology/Botanique/Sorbaria/Sorbaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sorbaria (Les sorbaires) est un genre de la famille des Rosaceae regroupant des arbustes d'Asie orientale tempérée.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre comprend des plantes aux caractéristiques suivantes :
 il s'agit d'arbustes caducs et vivaces ;
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est originaire d'Asie tempérée : Sibérie principalement, Chine et Japon.
 </t>
@@ -578,7 +594,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Sorbaria appartient à la sous-famille Spiraeoideae, tribu Sorbarieae.
 Le genre avait d'abord été défini comme une section du genre Spiraea en 1825.
@@ -610,9 +628,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre comprend les espèces suivantes[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre comprend les espèces suivantes :
 Sorbaria aitchisonii Hemsl. (1900) : voir Sorbaria tomentosa var. angustifolia (Wenz.) Rahn
 Sorbaria alpina Dippel (1893) - voir Sorbaria grandiflora (Sweet) Maxim.
 Sorbaria arborea C.K.Schneid. (1904) - synonyme : Spiraea arborea (C.K.Schneid.) Bean
@@ -630,7 +650,7 @@
 Sorbaria pallasii (G.Don) Pojark. (1939) : voir Sorbaria grandiflora (Sweet) Maxim.
 Sorbaria pallasii subsp. rhoifolia (Kom.) Vorosch. (1985) : voir Sorbaria grandiflora subsp. rhoifolia (Kom.) Jakubov
 Sorbaria rhoifolia Kom. (1916)
-Sorbaria sorbifolia (L.) A.Braun (1860)[2]
+Sorbaria sorbifolia (L.) A.Braun (1860)
 Sorbaria sorbifolia var. glabra Maxim. (1879)
 Sorbaria sorbifolia var. kirilowii (Regel &amp; Tiling) Ito (1900) : voir Sorbaria kirilowii (Regel &amp; Tiling) Maxim.
 Sorbaria sorbifolia var. stellipila Maxim. (1879) - synonyme : Sorbaria stellipila (Maxim.) C.K.Schneid.
